--- a/Strategy_Stuff/CSE_Core_Subjects_Books.xlsx
+++ b/Strategy_Stuff/CSE_Core_Subjects_Books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GATE\GATE_CS_2021\Strategy_Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6051E7F-F9FF-4CF1-A0AC-8F230354E4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667028D-712C-4E4E-A0DC-4F6AAE3F78F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Kenneth A Ross</t>
   </si>
   <si>
-    <t>Compilers Second Edition Principles, Techniques, &amp; Tools</t>
-  </si>
-  <si>
     <t>Introduction to Automata Theory, Languages, and Computation</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>Fundamentals of Computer Algorithms</t>
+  </si>
+  <si>
+    <t>Second Edition Compilers:  Principles, Techniques, &amp; Tools</t>
   </si>
 </sst>
 </file>
@@ -591,19 +591,10 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -622,12 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,6 +633,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,448 +938,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="13"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="7" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="7" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="7" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="7" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="7" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="7" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="7" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="7" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>87</v>
+      <c r="C44" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
